--- a/Входные_Данные.xlsx
+++ b/Входные_Данные.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4248" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4245" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserInterface" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Ширина Размещения</t>
   </si>
@@ -91,13 +92,127 @@
   </si>
   <si>
     <t>Количество ванн</t>
+  </si>
+  <si>
+    <t>Создание нового проекта</t>
+  </si>
+  <si>
+    <t>Создать Новый</t>
+  </si>
+  <si>
+    <t>Загрузить предыдущий</t>
+  </si>
+  <si>
+    <t>Создание/Загрузка проекта</t>
+  </si>
+  <si>
+    <t>Имя проекта</t>
+  </si>
+  <si>
+    <t>1 Шаг</t>
+  </si>
+  <si>
+    <t>Файл с исходными данными (если есть)</t>
+  </si>
+  <si>
+    <t>с:/User/Documents/Projects</t>
+  </si>
+  <si>
+    <t>Брэндфорд</t>
+  </si>
+  <si>
+    <t>Далее</t>
+  </si>
+  <si>
+    <t>2 Шаг - Проверка исходных данных</t>
+  </si>
+  <si>
+    <t>Загрузка предыдущего проекта</t>
+  </si>
+  <si>
+    <t>Список прошлых проектов</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>5 Шаг - Генерация решений</t>
+  </si>
+  <si>
+    <t>Вывести кол-во решений</t>
+  </si>
+  <si>
+    <t>Была речь про выбор нескольких из пула решений</t>
+  </si>
+  <si>
+    <t>Критерий выбора: однотипность  нескольких решений (очень похожи друг на друга)</t>
+  </si>
+  <si>
+    <t>Автокад</t>
+  </si>
+  <si>
+    <t>Plant Simulation</t>
+  </si>
+  <si>
+    <t>Вывести кол-во решений, хар-ки лучших решений, длина всех конвейеров</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
+  </si>
+  <si>
+    <t>Генерация в средах:</t>
+  </si>
+  <si>
+    <t>Примечание: Стартовый экран программы</t>
+  </si>
+  <si>
+    <t>Примечание: Ввод имени проекта или указывание пути до эксельки</t>
+  </si>
+  <si>
+    <t>Примечание: Просмотр/правка исходных данных</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Чертеж покрасочной кабины, dwg</t>
+  </si>
+  <si>
+    <t>Файл со строительной подосновой, dwg</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>4 Шаг - Настройка решающих правил алгоритма</t>
+  </si>
+  <si>
+    <t>Ванна №1</t>
+  </si>
+  <si>
+    <t>Ванна №2</t>
+  </si>
+  <si>
+    <t>Ванна №3</t>
+  </si>
+  <si>
+    <t>Ванна №4</t>
+  </si>
+  <si>
+    <t>Ванна №5</t>
+  </si>
+  <si>
+    <t>Ванна №6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +229,73 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -131,11 +303,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +612,213 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,22 +1100,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -455,7 +1126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -466,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -488,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -499,12 +1170,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -515,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -526,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -537,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -545,95 +1216,1492 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81:I81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="L22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="L24" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="F25" s="16"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="L26" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="14"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="14"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="73"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="L43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="36"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="L44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="20">
+        <v>55000</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="20">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="20">
+        <v>3</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="L48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="20">
+        <v>200</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="14"/>
+      <c r="L50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="20">
+        <v>3800</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="20">
+        <v>700</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="L52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="20">
+        <v>1800</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="14"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="8"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="20">
+        <v>3</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="8"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="51">
+        <v>1</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="20">
+        <v>150</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="51">
+        <v>2</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="20">
+        <v>60</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="51">
+        <v>3</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="20">
+        <v>60</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="51">
+        <v>4</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="8"/>
+      <c r="L60" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="40"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" s="42"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="51">
+        <v>5</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="8"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="8"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="8"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="73"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="8"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="11"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="36"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="43"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="37"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="43"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="14"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="14"/>
+    </row>
+    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="14"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="37"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="14"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="14"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="40"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" s="42"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="G35:H40"/>
+    <mergeCell ref="G65:H70"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="L14:M19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C85:E86"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="B110:D113"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L50:N51"/>
+    <mergeCell ref="L52:N55"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Входные_Данные.xlsx
+++ b/Входные_Данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4245" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4248" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -700,6 +700,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +734,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,110 +799,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,19 +1103,19 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1170,12 +1170,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1258,22 +1258,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1295,67 +1295,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
@@ -1373,181 +1373,181 @@
       <selection activeCell="H81" sqref="H81:I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="34" t="s">
+    <row r="1" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-    </row>
-    <row r="2" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G3" s="64" t="s">
+    <row r="3" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
-    </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="L22" s="34" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="L22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1559,21 +1559,21 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="L24" s="46" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="L24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
       <c r="O24" s="15"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="F25" s="16"/>
       <c r="L25" s="12"/>
@@ -1582,51 +1582,51 @@
       <c r="O25" s="15"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57" t="s">
+    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="13"/>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="14"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="24"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="24"/>
       <c r="O28" s="13"/>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
@@ -1634,19 +1634,19 @@
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
       <c r="F29" s="14"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="24"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
+    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="14"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13"/>
@@ -1654,7 +1654,7 @@
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1666,13 +1666,13 @@
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
@@ -1680,13 +1680,13 @@
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
@@ -1694,7 +1694,7 @@
       <c r="O33" s="13"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1706,69 +1706,69 @@
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="73"/>
+      <c r="H35" s="35"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+    <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1776,8 +1776,8 @@
       <c r="F39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -1786,37 +1786,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="73"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
+    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="L43" s="34" t="s">
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="L43" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="36"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="45"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="O44" s="13"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1844,11 +1844,11 @@
       <c r="O45" s="15"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="20">
         <v>55000</v>
       </c>
@@ -1862,11 +1862,11 @@
       <c r="O46" s="15"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="51" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="20">
         <v>15000</v>
       </c>
@@ -1880,11 +1880,11 @@
       <c r="O47" s="13"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="51" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="20">
         <v>3</v>
       </c>
@@ -1900,11 +1900,11 @@
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="51" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="20">
         <v>200</v>
       </c>
@@ -1918,27 +1918,27 @@
       <c r="O49" s="13"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="53" t="s">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="14"/>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
       <c r="O50" s="13"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="20">
         <v>3800</v>
       </c>
@@ -1946,17 +1946,17 @@
         <v>5</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="52"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="20">
         <v>700</v>
       </c>
@@ -1964,19 +1964,19 @@
         <v>5</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="51" t="s">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="52"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="20">
         <v>1800</v>
       </c>
@@ -1984,45 +1984,45 @@
         <v>5</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="55" t="s">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="14"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="51" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="52"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="20"/>
       <c r="E55" s="21"/>
       <c r="F55" s="8"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="51" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="52"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="20">
         <v>3</v>
       </c>
@@ -2034,11 +2034,11 @@
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="51">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="41">
         <v>1</v>
       </c>
-      <c r="C57" s="52"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="20">
         <v>150</v>
       </c>
@@ -2052,11 +2052,11 @@
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="51">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="41">
         <v>2</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="20">
         <v>60</v>
       </c>
@@ -2070,11 +2070,11 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="51">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="41">
         <v>3</v>
       </c>
-      <c r="C59" s="52"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="20">
         <v>60</v>
       </c>
@@ -2088,29 +2088,29 @@
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="51">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="41">
         <v>4</v>
       </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="20"/>
       <c r="E60" s="21"/>
       <c r="F60" s="8"/>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="40"/>
+      <c r="M60" s="69"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="41" t="s">
+      <c r="O60" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="42"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="51">
+      <c r="P60" s="71"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="41">
         <v>5</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
       <c r="F61" s="8"/>
@@ -2120,7 +2120,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -2132,7 +2132,7 @@
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="20"/>
@@ -2144,7 +2144,7 @@
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="26" t="s">
         <v>51</v>
       </c>
@@ -2158,93 +2158,93 @@
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="26"/>
       <c r="C65" s="30"/>
       <c r="D65" s="31"/>
       <c r="E65" s="32"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="73"/>
+      <c r="H65" s="35"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="26"/>
       <c r="C66" s="6"/>
       <c r="D66" s="20"/>
       <c r="E66" s="17"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
       <c r="D67" s="25"/>
       <c r="E67" s="17"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="20"/>
       <c r="E68" s="17"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
       <c r="D69" s="20"/>
       <c r="E69" s="17"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
       <c r="D70" s="22"/>
       <c r="E70" s="33"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="20"/>
@@ -2258,7 +2258,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="20"/>
@@ -2270,7 +2270,7 @@
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="D73" s="22"/>
@@ -2282,7 +2282,7 @@
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="20"/>
@@ -2294,7 +2294,7 @@
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="20"/>
@@ -2306,7 +2306,7 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="20"/>
@@ -2318,7 +2318,7 @@
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="20"/>
@@ -2332,7 +2332,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="20"/>
@@ -2344,7 +2344,7 @@
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="20"/>
@@ -2356,21 +2356,21 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
+    <row r="81" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="36"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="45"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>55</v>
       </c>
@@ -2379,107 +2379,107 @@
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="12"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="15"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
-      <c r="C85" s="47" t="s">
+      <c r="C85" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2488,30 +2488,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="34" t="s">
+    <row r="101" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="36"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="45"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>39</v>
       </c>
@@ -2520,90 +2520,90 @@
       <c r="E102" s="13"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="37" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="43"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="37"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="43"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="65"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="67"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="37" t="s">
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="37"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="65"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="37" t="s">
+    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="13"/>
       <c r="F110" s="14"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="37"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="65"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="37"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="65"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="37"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="65"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2612,34 +2612,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="44" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="39" t="s">
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="40"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="42"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="71"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2648,26 +2648,22 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G35:H40"/>
-    <mergeCell ref="G65:H70"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="L14:M19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L50:N51"/>
+    <mergeCell ref="L52:N55"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="B110:D113"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="B46:C46"/>
@@ -2684,22 +2680,26 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B104:F105"/>
-    <mergeCell ref="B108:D109"/>
-    <mergeCell ref="B110:D113"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L50:N51"/>
-    <mergeCell ref="L52:N55"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="L14:M19"/>
+    <mergeCell ref="G35:H40"/>
+    <mergeCell ref="G65:H70"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Входные_Данные.xlsx
+++ b/Входные_Данные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4248" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4245" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -700,125 +700,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,19 +1103,19 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1170,12 +1170,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1258,22 +1258,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1295,67 +1295,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
@@ -1373,181 +1373,181 @@
       <selection activeCell="H81" sqref="H81:I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="43" t="s">
+    <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G3" s="46" t="s">
+    <row r="3" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="L22" s="43" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="L22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1559,21 +1559,21 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="L24" s="36" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="L24" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
       <c r="O24" s="15"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="F25" s="16"/>
       <c r="L25" s="12"/>
@@ -1582,51 +1582,51 @@
       <c r="O25" s="15"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="54" t="s">
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="13"/>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="14"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
       <c r="N27" s="24"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
       <c r="N28" s="24"/>
       <c r="O28" s="13"/>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
@@ -1634,19 +1634,19 @@
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
       <c r="F29" s="14"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="24"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="14"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13"/>
@@ -1654,7 +1654,7 @@
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1666,13 +1666,13 @@
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
@@ -1680,13 +1680,13 @@
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
@@ -1694,7 +1694,7 @@
       <c r="O33" s="13"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1706,69 +1706,69 @@
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="35"/>
+      <c r="H35" s="73"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="38" t="s">
+    <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1776,8 +1776,8 @@
       <c r="F39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -1786,37 +1786,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="43" t="s">
+    <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="L43" s="43" t="s">
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="L43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="45"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="36"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>34</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="O44" s="13"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1844,11 +1844,11 @@
       <c r="O45" s="15"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="41" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="20">
         <v>55000</v>
       </c>
@@ -1862,11 +1862,11 @@
       <c r="O46" s="15"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="41" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="20">
         <v>15000</v>
       </c>
@@ -1880,11 +1880,11 @@
       <c r="O47" s="13"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="41" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="42"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="20">
         <v>3</v>
       </c>
@@ -1900,11 +1900,11 @@
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="41" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="42"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="20">
         <v>200</v>
       </c>
@@ -1918,27 +1918,27 @@
       <c r="O49" s="13"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="58" t="s">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="14"/>
-      <c r="L50" s="65" t="s">
+      <c r="L50" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
       <c r="O50" s="13"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="41" t="s">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="42"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="20">
         <v>3800</v>
       </c>
@@ -1946,17 +1946,17 @@
         <v>5</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="41" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="42"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="20">
         <v>700</v>
       </c>
@@ -1964,19 +1964,19 @@
         <v>5</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="41" t="s">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="42"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="20">
         <v>1800</v>
       </c>
@@ -1984,45 +1984,45 @@
         <v>5</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="60" t="s">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="61"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="14"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="41" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="42"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="20"/>
       <c r="E55" s="21"/>
       <c r="F55" s="8"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="41" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="20">
         <v>3</v>
       </c>
@@ -2034,11 +2034,11 @@
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="41">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="51">
         <v>1</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="20">
         <v>150</v>
       </c>
@@ -2052,11 +2052,11 @@
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="51">
         <v>2</v>
       </c>
-      <c r="C58" s="42"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="20">
         <v>60</v>
       </c>
@@ -2070,11 +2070,11 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="41">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="51">
         <v>3</v>
       </c>
-      <c r="C59" s="42"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="20">
         <v>60</v>
       </c>
@@ -2088,29 +2088,29 @@
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="41">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="51">
         <v>4</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="20"/>
       <c r="E60" s="21"/>
       <c r="F60" s="8"/>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="69"/>
+      <c r="M60" s="40"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="70" t="s">
+      <c r="O60" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="71"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="41">
+      <c r="P60" s="42"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="51">
         <v>5</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
       <c r="F61" s="8"/>
@@ -2120,7 +2120,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -2132,7 +2132,7 @@
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="20"/>
@@ -2144,7 +2144,7 @@
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>51</v>
       </c>
@@ -2158,93 +2158,93 @@
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="26"/>
       <c r="C65" s="30"/>
       <c r="D65" s="31"/>
       <c r="E65" s="32"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="35"/>
+      <c r="H65" s="73"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="26"/>
       <c r="C66" s="6"/>
       <c r="D66" s="20"/>
       <c r="E66" s="17"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
       <c r="D67" s="25"/>
       <c r="E67" s="17"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="20"/>
       <c r="E68" s="17"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
       <c r="D69" s="20"/>
       <c r="E69" s="17"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
       <c r="D70" s="22"/>
       <c r="E70" s="33"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="20"/>
@@ -2258,7 +2258,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="20"/>
@@ -2270,7 +2270,7 @@
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="D73" s="22"/>
@@ -2282,7 +2282,7 @@
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="20"/>
@@ -2294,7 +2294,7 @@
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="20"/>
@@ -2306,7 +2306,7 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="20"/>
@@ -2318,7 +2318,7 @@
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="20"/>
@@ -2332,7 +2332,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="20"/>
@@ -2344,7 +2344,7 @@
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="20"/>
@@ -2356,21 +2356,21 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="43" t="s">
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="45"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>55</v>
       </c>
@@ -2379,107 +2379,107 @@
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="15"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2488,30 +2488,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="101" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="43" t="s">
+    <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="45"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="36"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>39</v>
       </c>
@@ -2520,90 +2520,90 @@
       <c r="E102" s="13"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="15"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="65" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="65"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="67"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="43"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="37"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="43"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="65" t="s">
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="65"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="37"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="65" t="s">
+    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
       <c r="E110" s="13"/>
       <c r="F110" s="14"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="65"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="37"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="65"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="37"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="65"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2612,34 +2612,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="72" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="68" t="s">
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="69"/>
+      <c r="C118" s="40"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="71"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F118" s="42"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2648,22 +2648,26 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L50:N51"/>
-    <mergeCell ref="L52:N55"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="B104:F105"/>
-    <mergeCell ref="B108:D109"/>
-    <mergeCell ref="B110:D113"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G35:H40"/>
+    <mergeCell ref="G65:H70"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="L14:M19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:F43"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="B46:C46"/>
@@ -2680,26 +2684,22 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="L14:M19"/>
-    <mergeCell ref="G35:H40"/>
-    <mergeCell ref="G65:H70"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="B110:D113"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L50:N51"/>
+    <mergeCell ref="L52:N55"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Входные_Данные.xlsx
+++ b/Входные_Данные.xlsx
@@ -700,6 +700,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +734,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,110 +799,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>55000</v>
+        <v>500000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>15000</v>
+        <v>500000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1379,13 +1379,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="6"/>
@@ -1395,22 +1395,22 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G5" s="6"/>
@@ -1481,10 +1481,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="73"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
@@ -1492,8 +1492,8 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
@@ -1501,8 +1501,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G17" s="6"/>
@@ -1510,8 +1510,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
@@ -1519,8 +1519,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G19" s="9"/>
@@ -1528,24 +1528,24 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="L22" s="34" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="L22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
@@ -1563,13 +1563,13 @@
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="L24" s="46" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="L24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
       <c r="O24" s="15"/>
       <c r="P24" s="16"/>
     </row>
@@ -1583,17 +1583,17 @@
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="13"/>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="24" t="s">
         <v>38</v>
       </c>
@@ -1601,15 +1601,15 @@
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="14"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="24"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
@@ -1620,8 +1620,8 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="24"/>
       <c r="O28" s="13"/>
       <c r="P28" s="14"/>
@@ -1634,19 +1634,19 @@
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
       <c r="F29" s="14"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="24"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="14"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13"/>
@@ -1667,12 +1667,12 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
@@ -1681,12 +1681,12 @@
       <c r="P32" s="14"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
@@ -1707,17 +1707,17 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="73"/>
+      <c r="H35" s="35"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -1725,15 +1725,15 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -1746,8 +1746,8 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -1760,8 +1760,8 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -1776,8 +1776,8 @@
       <c r="F39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -1792,8 +1792,8 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="73"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -1801,20 +1801,20 @@
       <c r="P40" s="11"/>
     </row>
     <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="L43" s="34" t="s">
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="L43" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="36"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="45"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
@@ -1845,10 +1845,10 @@
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="20">
         <v>55000</v>
       </c>
@@ -1863,10 +1863,10 @@
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="20">
         <v>15000</v>
       </c>
@@ -1881,10 +1881,10 @@
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="20">
         <v>3</v>
       </c>
@@ -1901,10 +1901,10 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="20">
         <v>200</v>
       </c>
@@ -1919,26 +1919,26 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="14"/>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
       <c r="O50" s="13"/>
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="20">
         <v>3800</v>
       </c>
@@ -1946,17 +1946,17 @@
         <v>5</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="52"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="20">
         <v>700</v>
       </c>
@@ -1964,19 +1964,19 @@
         <v>5</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="52"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="20">
         <v>1800</v>
       </c>
@@ -1984,45 +1984,45 @@
         <v>5</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="14"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="52"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="20"/>
       <c r="E55" s="21"/>
       <c r="F55" s="8"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="52"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="20">
         <v>3</v>
       </c>
@@ -2035,10 +2035,10 @@
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="51">
+      <c r="B57" s="41">
         <v>1</v>
       </c>
-      <c r="C57" s="52"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="20">
         <v>150</v>
       </c>
@@ -2053,10 +2053,10 @@
       <c r="P57" s="8"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="51">
+      <c r="B58" s="41">
         <v>2</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="20">
         <v>60</v>
       </c>
@@ -2071,10 +2071,10 @@
       <c r="P58" s="8"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="51">
+      <c r="B59" s="41">
         <v>3</v>
       </c>
-      <c r="C59" s="52"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="20">
         <v>60</v>
       </c>
@@ -2089,28 +2089,28 @@
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="51">
+      <c r="B60" s="41">
         <v>4</v>
       </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="20"/>
       <c r="E60" s="21"/>
       <c r="F60" s="8"/>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="40"/>
+      <c r="M60" s="69"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="41" t="s">
+      <c r="O60" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="42"/>
+      <c r="P60" s="71"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="51">
+      <c r="B61" s="41">
         <v>5</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
       <c r="F61" s="8"/>
@@ -2164,10 +2164,10 @@
       <c r="D65" s="31"/>
       <c r="E65" s="32"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="73"/>
+      <c r="H65" s="35"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -2180,8 +2180,8 @@
       <c r="D66" s="20"/>
       <c r="E66" s="17"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -2194,8 +2194,8 @@
       <c r="D67" s="25"/>
       <c r="E67" s="17"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -2208,8 +2208,8 @@
       <c r="D68" s="20"/>
       <c r="E68" s="17"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -2222,8 +2222,8 @@
       <c r="D69" s="20"/>
       <c r="E69" s="17"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -2236,8 +2236,8 @@
       <c r="D70" s="22"/>
       <c r="E70" s="33"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -2362,13 +2362,13 @@
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="36"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
@@ -2395,18 +2395,18 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
-      <c r="C85" s="47" t="s">
+      <c r="C85" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -2503,13 +2503,13 @@
       <c r="F99" s="11"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="36"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="45"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
@@ -2528,20 +2528,20 @@
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="43"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="37"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="43"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="67"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
@@ -2551,48 +2551,48 @@
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="37"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="13"/>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="37"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="37"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="37"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
     </row>
@@ -2620,24 +2620,24 @@
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="40"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="42"/>
+      <c r="F118" s="71"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
@@ -2648,26 +2648,22 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G35:H40"/>
-    <mergeCell ref="G65:H70"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="L14:M19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L50:N51"/>
+    <mergeCell ref="L52:N55"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="B110:D113"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="B46:C46"/>
@@ -2684,22 +2680,26 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B104:F105"/>
-    <mergeCell ref="B108:D109"/>
-    <mergeCell ref="B110:D113"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L50:N51"/>
-    <mergeCell ref="L52:N55"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="L14:M19"/>
+    <mergeCell ref="G35:H40"/>
+    <mergeCell ref="G65:H70"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Входные_Данные.xlsx
+++ b/Входные_Данные.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Ширина Размещения</t>
   </si>
@@ -599,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,125 +700,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,15 +1265,24 @@
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C19" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C20" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,13 +1391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="6"/>
@@ -1395,22 +1407,22 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G5" s="6"/>
@@ -1481,10 +1493,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
@@ -1492,8 +1504,8 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
@@ -1501,8 +1513,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G17" s="6"/>
@@ -1510,8 +1522,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
@@ -1519,8 +1531,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G19" s="9"/>
@@ -1528,24 +1540,24 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="L22" s="43" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="L22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
@@ -1563,13 +1575,13 @@
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="L24" s="36" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="L24" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
       <c r="O24" s="15"/>
       <c r="P24" s="16"/>
     </row>
@@ -1583,17 +1595,17 @@
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="13"/>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="24" t="s">
         <v>38</v>
       </c>
@@ -1601,15 +1613,15 @@
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="14"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="24"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
@@ -1620,8 +1632,8 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="24"/>
       <c r="O28" s="13"/>
       <c r="P28" s="14"/>
@@ -1634,19 +1646,19 @@
       <c r="D29" s="13"/>
       <c r="E29" s="15"/>
       <c r="F29" s="14"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="24"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="14"/>
       <c r="L30" s="12"/>
       <c r="M30" s="13"/>
@@ -1667,12 +1679,12 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="13"/>
@@ -1681,12 +1693,12 @@
       <c r="P32" s="14"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13"/>
@@ -1707,17 +1719,17 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="35"/>
+      <c r="H35" s="74"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -1725,15 +1737,15 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -1746,8 +1758,8 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -1760,8 +1772,8 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -1776,8 +1788,8 @@
       <c r="F39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -1792,8 +1804,8 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -1801,20 +1813,20 @@
       <c r="P40" s="11"/>
     </row>
     <row r="43" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="L43" s="43" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="L43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="45"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
@@ -1845,10 +1857,10 @@
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="20">
         <v>55000</v>
       </c>
@@ -1863,10 +1875,10 @@
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="20">
         <v>15000</v>
       </c>
@@ -1881,10 +1893,10 @@
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="42"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="20">
         <v>3</v>
       </c>
@@ -1901,10 +1913,10 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="42"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="20">
         <v>200</v>
       </c>
@@ -1919,26 +1931,26 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="14"/>
-      <c r="L50" s="65" t="s">
+      <c r="L50" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="13"/>
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="42"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="20">
         <v>3800</v>
       </c>
@@ -1946,17 +1958,17 @@
         <v>5</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="42"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="20">
         <v>700</v>
       </c>
@@ -1964,19 +1976,19 @@
         <v>5</v>
       </c>
       <c r="F52" s="14"/>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="42"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="20">
         <v>1800</v>
       </c>
@@ -1984,45 +1996,45 @@
         <v>5</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
       <c r="O53" s="13"/>
       <c r="P53" s="14"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="61"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="20"/>
       <c r="E54" s="21"/>
       <c r="F54" s="14"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="42"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="20"/>
       <c r="E55" s="21"/>
       <c r="F55" s="8"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="20">
         <v>3</v>
       </c>
@@ -2035,10 +2047,10 @@
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="41">
+      <c r="B57" s="52">
         <v>1</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="20">
         <v>150</v>
       </c>
@@ -2053,10 +2065,10 @@
       <c r="P57" s="8"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="41">
+      <c r="B58" s="52">
         <v>2</v>
       </c>
-      <c r="C58" s="42"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="20">
         <v>60</v>
       </c>
@@ -2071,10 +2083,10 @@
       <c r="P58" s="8"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="41">
+      <c r="B59" s="52">
         <v>3</v>
       </c>
-      <c r="C59" s="42"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="20">
         <v>60</v>
       </c>
@@ -2089,28 +2101,28 @@
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="41">
+      <c r="B60" s="52">
         <v>4</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="20"/>
       <c r="E60" s="21"/>
       <c r="F60" s="8"/>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="69"/>
+      <c r="M60" s="41"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="70" t="s">
+      <c r="O60" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="71"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="41">
+      <c r="B61" s="52">
         <v>5</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="20"/>
       <c r="E61" s="21"/>
       <c r="F61" s="8"/>
@@ -2164,10 +2176,10 @@
       <c r="D65" s="31"/>
       <c r="E65" s="32"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="35" t="s">
+      <c r="G65" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="35"/>
+      <c r="H65" s="74"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -2180,8 +2192,8 @@
       <c r="D66" s="20"/>
       <c r="E66" s="17"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -2194,8 +2206,8 @@
       <c r="D67" s="25"/>
       <c r="E67" s="17"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -2208,8 +2220,8 @@
       <c r="D68" s="20"/>
       <c r="E68" s="17"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -2222,8 +2234,8 @@
       <c r="D69" s="20"/>
       <c r="E69" s="17"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -2236,8 +2248,8 @@
       <c r="D70" s="22"/>
       <c r="E70" s="33"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -2362,13 +2374,13 @@
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="45"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="37"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
@@ -2395,18 +2407,18 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
@@ -2503,13 +2515,13 @@
       <c r="F99" s="11"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="45"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
@@ -2528,20 +2540,20 @@
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="67"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="44"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="65"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="67"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="44"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
@@ -2551,48 +2563,48 @@
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="65"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="13"/>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="65"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="65"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="65"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
     </row>
@@ -2620,24 +2632,24 @@
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="72" t="s">
+      <c r="B117" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="68" t="s">
+      <c r="B118" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="69"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="71"/>
+      <c r="F118" s="43"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
@@ -2648,22 +2660,26 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L50:N51"/>
-    <mergeCell ref="L52:N55"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="B104:F105"/>
-    <mergeCell ref="B108:D109"/>
-    <mergeCell ref="B110:D113"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G35:H40"/>
+    <mergeCell ref="G65:H70"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="L14:M19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:F43"/>
     <mergeCell ref="B81:F81"/>
     <mergeCell ref="B101:F101"/>
     <mergeCell ref="B46:C46"/>
@@ -2680,26 +2696,22 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="L14:M19"/>
-    <mergeCell ref="G35:H40"/>
-    <mergeCell ref="G65:H70"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B104:F105"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="B110:D113"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L50:N51"/>
+    <mergeCell ref="L52:N55"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
